--- a/Examples/Dictionary/Calc/Exp110_Excel_results.xlsx
+++ b/Examples/Dictionary/Calc/Exp110_Excel_results.xlsx
@@ -1338,6 +1338,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6">
     <cfRule type="dataBar" priority="2">
@@ -1347,6 +1354,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
     <cfRule type="dataBar" priority="1">
@@ -1356,6 +1370,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14">
     <cfRule type="dataBar" priority="2">
@@ -1365,6 +1386,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="dataBar" priority="1">
@@ -1374,6 +1402,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22">
     <cfRule type="dataBar" priority="2">
@@ -1383,6 +1418,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H30">
     <cfRule type="dataBar" priority="1">
@@ -1392,6 +1434,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I30">
     <cfRule type="dataBar" priority="2">
@@ -1401,6 +1450,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H37">
     <cfRule type="dataBar" priority="1">
@@ -1410,6 +1466,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I37">
     <cfRule type="dataBar" priority="2">
@@ -1419,6 +1482,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H45">
     <cfRule type="dataBar" priority="1">
@@ -1428,6 +1498,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I45">
     <cfRule type="dataBar" priority="2">
@@ -1437,6 +1514,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H52">
     <cfRule type="dataBar" priority="1">
@@ -1446,6 +1530,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I52">
     <cfRule type="dataBar" priority="2">
@@ -1455,6 +1546,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H60">
     <cfRule type="dataBar" priority="1">
@@ -1464,6 +1562,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I60">
     <cfRule type="dataBar" priority="2">
@@ -1473,6 +1578,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H67">
     <cfRule type="dataBar" priority="1">
@@ -1482,9 +1594,23 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I67">
     <cfRule type="dataBar" priority="2">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
